--- a/state_results/Rivers/KoputaroaatTavistockRd_f25e00c282.xlsx
+++ b/state_results/Rivers/KoputaroaatTavistockRd_f25e00c282.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:U120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,13 +647,13 @@
         <v>0.52</v>
       </c>
       <c r="G3" t="n">
-        <v>0.786114454909783</v>
+        <v>0.753867344895107</v>
       </c>
       <c r="H3" t="n">
-        <v>4.59821698473855</v>
+        <v>3.21528941310661</v>
       </c>
       <c r="I3" t="n">
-        <v>2.04456</v>
+        <v>2.11733</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -664,7 +664,7 @@
         <v>1.3834</v>
       </c>
       <c r="N3" t="n">
-        <v>1.69509</v>
+        <v>1.874</v>
       </c>
       <c r="O3" t="n">
         <v>1797784.6</v>
@@ -890,10 +890,10 @@
         <v>1195</v>
       </c>
       <c r="G6" t="n">
-        <v>2127.78727062118</v>
+        <v>2011.9106515125</v>
       </c>
       <c r="H6" t="n">
-        <v>14852.4918197361</v>
+        <v>10554.2057876778</v>
       </c>
       <c r="I6" t="n">
         <v>9678</v>
@@ -975,10 +975,10 @@
         <v>1195</v>
       </c>
       <c r="G7" t="n">
-        <v>2127.78727062118</v>
+        <v>2011.9106515125</v>
       </c>
       <c r="H7" t="n">
-        <v>14852.4918197361</v>
+        <v>10554.2057876778</v>
       </c>
       <c r="I7" t="n">
         <v>9678</v>
@@ -1060,10 +1060,10 @@
         <v>1195</v>
       </c>
       <c r="G8" t="n">
-        <v>2127.78727062118</v>
+        <v>2011.9106515125</v>
       </c>
       <c r="H8" t="n">
-        <v>14852.4918197361</v>
+        <v>10554.2057876778</v>
       </c>
       <c r="I8" t="n">
         <v>9678</v>
@@ -1145,10 +1145,10 @@
         <v>1195</v>
       </c>
       <c r="G9" t="n">
-        <v>2127.78727062118</v>
+        <v>2011.9106515125</v>
       </c>
       <c r="H9" t="n">
-        <v>14852.4918197361</v>
+        <v>10554.2057876778</v>
       </c>
       <c r="I9" t="n">
         <v>9678</v>
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0036</v>
+        <v>0.00361</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0110871746621557</v>
+        <v>0.0110837884831199</v>
       </c>
       <c r="H11" t="n">
         <v>0.171570669395899</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0036</v>
+        <v>0.00361</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0110871746621557</v>
+        <v>0.0110837884831199</v>
       </c>
       <c r="H12" t="n">
         <v>0.171570669395899</v>
@@ -1704,13 +1704,13 @@
         <v>2.405</v>
       </c>
       <c r="G16" t="n">
-        <v>2.54520338983051</v>
+        <v>2.54517796610169</v>
       </c>
       <c r="H16" t="n">
         <v>4.565</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2837</v>
+        <v>4.28365</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1718,10 +1718,10 @@
         <v>2.665</v>
       </c>
       <c r="M16" t="n">
-        <v>3.61111</v>
+        <v>3.61092</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1637</v>
+        <v>4.1632</v>
       </c>
       <c r="O16" t="n">
         <v>1797784.6</v>
@@ -1781,13 +1781,13 @@
         <v>2.405</v>
       </c>
       <c r="G17" t="n">
-        <v>2.54520338983051</v>
+        <v>2.54517796610169</v>
       </c>
       <c r="H17" t="n">
         <v>4.565</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2837</v>
+        <v>4.28365</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1795,10 +1795,10 @@
         <v>2.665</v>
       </c>
       <c r="M17" t="n">
-        <v>3.61111</v>
+        <v>3.61092</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1637</v>
+        <v>4.1632</v>
       </c>
       <c r="O17" t="n">
         <v>1797784.6</v>
@@ -2247,13 +2247,13 @@
         <v>0.52</v>
       </c>
       <c r="G23" t="n">
-        <v>0.706416212355917</v>
+        <v>0.71455088935974</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>2.1089516699727</v>
       </c>
       <c r="I23" t="n">
-        <v>1.757</v>
+        <v>1.78327</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -2264,7 +2264,7 @@
         <v>1.4483</v>
       </c>
       <c r="N23" t="n">
-        <v>1.69321</v>
+        <v>1.7252</v>
       </c>
       <c r="O23" t="n">
         <v>1797784.6</v>
@@ -2490,13 +2490,13 @@
         <v>1500</v>
       </c>
       <c r="G26" t="n">
-        <v>2423.26197402734</v>
+        <v>2319.85029439979</v>
       </c>
       <c r="H26" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I26" t="n">
-        <v>11065.47857</v>
+        <v>9796.261329999999</v>
       </c>
       <c r="J26" t="n">
         <v>75</v>
@@ -2575,13 +2575,13 @@
         <v>1500</v>
       </c>
       <c r="G27" t="n">
-        <v>2423.26197402734</v>
+        <v>2319.85029439979</v>
       </c>
       <c r="H27" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I27" t="n">
-        <v>11065.47857</v>
+        <v>9796.261329999999</v>
       </c>
       <c r="J27" t="n">
         <v>75</v>
@@ -2660,13 +2660,13 @@
         <v>1500</v>
       </c>
       <c r="G28" t="n">
-        <v>2423.26197402734</v>
+        <v>2319.85029439979</v>
       </c>
       <c r="H28" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I28" t="n">
-        <v>11065.47857</v>
+        <v>9796.261329999999</v>
       </c>
       <c r="J28" t="n">
         <v>75</v>
@@ -2745,13 +2745,13 @@
         <v>1500</v>
       </c>
       <c r="G29" t="n">
-        <v>2423.26197402734</v>
+        <v>2319.85029439979</v>
       </c>
       <c r="H29" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I29" t="n">
-        <v>11065.47857</v>
+        <v>9796.261329999999</v>
       </c>
       <c r="J29" t="n">
         <v>75</v>
@@ -2907,7 +2907,7 @@
         <v>0.00495</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0121095917545737</v>
+        <v>0.0121066491606864</v>
       </c>
       <c r="H31" t="n">
         <v>0.171570669395899</v>
@@ -2988,7 +2988,7 @@
         <v>0.00495</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0121095917545737</v>
+        <v>0.0121066491606864</v>
       </c>
       <c r="H32" t="n">
         <v>0.171570669395899</v>
@@ -3304,13 +3304,13 @@
         <v>2.315</v>
       </c>
       <c r="G36" t="n">
-        <v>2.45655</v>
+        <v>2.45653</v>
       </c>
       <c r="H36" t="n">
         <v>4.565</v>
       </c>
       <c r="I36" t="n">
-        <v>4.283</v>
+        <v>4.28295</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
         <v>3.456</v>
       </c>
       <c r="N36" t="n">
-        <v>3.996</v>
+        <v>3.99565</v>
       </c>
       <c r="O36" t="n">
         <v>1797784.6</v>
@@ -3381,13 +3381,13 @@
         <v>2.315</v>
       </c>
       <c r="G37" t="n">
-        <v>2.45655</v>
+        <v>2.45653</v>
       </c>
       <c r="H37" t="n">
         <v>4.565</v>
       </c>
       <c r="I37" t="n">
-        <v>4.283</v>
+        <v>4.28295</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -3398,7 +3398,7 @@
         <v>3.456</v>
       </c>
       <c r="N37" t="n">
-        <v>3.996</v>
+        <v>3.99565</v>
       </c>
       <c r="O37" t="n">
         <v>1797784.6</v>
@@ -3847,13 +3847,13 @@
         <v>0.45</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6296469880212</v>
+        <v>0.638541366938583</v>
       </c>
       <c r="H43" t="n">
-        <v>1.78710834885832</v>
+        <v>2.1089516699727</v>
       </c>
       <c r="I43" t="n">
-        <v>1.69906</v>
+        <v>1.76367</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -4090,13 +4090,13 @@
         <v>1500</v>
       </c>
       <c r="G46" t="n">
-        <v>2724.40233731349</v>
+        <v>2634.53791517552</v>
       </c>
       <c r="H46" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I46" t="n">
-        <v>12760.44142</v>
+        <v>10256.44838</v>
       </c>
       <c r="J46" t="n">
         <v>74.57627118644071</v>
@@ -4175,13 +4175,13 @@
         <v>1500</v>
       </c>
       <c r="G47" t="n">
-        <v>2724.40233731349</v>
+        <v>2634.53791517552</v>
       </c>
       <c r="H47" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I47" t="n">
-        <v>12760.44142</v>
+        <v>10256.44838</v>
       </c>
       <c r="J47" t="n">
         <v>74.57627118644071</v>
@@ -4260,13 +4260,13 @@
         <v>1500</v>
       </c>
       <c r="G48" t="n">
-        <v>2724.40233731349</v>
+        <v>2634.53791517552</v>
       </c>
       <c r="H48" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I48" t="n">
-        <v>12760.44142</v>
+        <v>10256.44838</v>
       </c>
       <c r="J48" t="n">
         <v>74.57627118644071</v>
@@ -4345,13 +4345,13 @@
         <v>1500</v>
       </c>
       <c r="G49" t="n">
-        <v>2724.40233731349</v>
+        <v>2634.53791517552</v>
       </c>
       <c r="H49" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I49" t="n">
-        <v>12760.44142</v>
+        <v>10256.44838</v>
       </c>
       <c r="J49" t="n">
         <v>74.57627118644071</v>
@@ -4507,7 +4507,7 @@
         <v>0.00946</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0162683603354558</v>
+        <v>0.0162672526737352</v>
       </c>
       <c r="H51" t="n">
         <v>0.171570669395899</v>
@@ -4588,7 +4588,7 @@
         <v>0.00946</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0162683603354558</v>
+        <v>0.0162672526737352</v>
       </c>
       <c r="H52" t="n">
         <v>0.171570669395899</v>
@@ -4904,7 +4904,7 @@
         <v>2.36</v>
       </c>
       <c r="G56" t="n">
-        <v>2.37367796610169</v>
+        <v>2.37368644067797</v>
       </c>
       <c r="H56" t="n">
         <v>4.29</v>
@@ -4918,7 +4918,7 @@
         <v>2.5625</v>
       </c>
       <c r="M56" t="n">
-        <v>3.28585</v>
+        <v>3.28611</v>
       </c>
       <c r="N56" t="n">
         <v>3.63542</v>
@@ -4981,7 +4981,7 @@
         <v>2.36</v>
       </c>
       <c r="G57" t="n">
-        <v>2.37367796610169</v>
+        <v>2.37368644067797</v>
       </c>
       <c r="H57" t="n">
         <v>4.29</v>
@@ -4995,7 +4995,7 @@
         <v>2.5625</v>
       </c>
       <c r="M57" t="n">
-        <v>3.28585</v>
+        <v>3.28611</v>
       </c>
       <c r="N57" t="n">
         <v>3.63542</v>
@@ -5447,13 +5447,13 @@
         <v>0.425</v>
       </c>
       <c r="G63" t="n">
-        <v>0.578890677071343</v>
+        <v>0.588843910621748</v>
       </c>
       <c r="H63" t="n">
-        <v>1.78710834885832</v>
+        <v>2.1089516699727</v>
       </c>
       <c r="I63" t="n">
-        <v>1.71698</v>
+        <v>1.7698</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
         <v>1.3376</v>
       </c>
       <c r="N63" t="n">
-        <v>1.61236</v>
+        <v>1.6224</v>
       </c>
       <c r="O63" t="n">
         <v>1797784.6</v>
@@ -5690,13 +5690,13 @@
         <v>1200</v>
       </c>
       <c r="G66" t="n">
-        <v>2668.08102973868</v>
+        <v>2610.0259526725</v>
       </c>
       <c r="H66" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I66" t="n">
-        <v>11531.5107</v>
+        <v>9805.88746</v>
       </c>
       <c r="J66" t="n">
         <v>76.27118644067799</v>
@@ -5775,13 +5775,13 @@
         <v>1200</v>
       </c>
       <c r="G67" t="n">
-        <v>2668.08102973868</v>
+        <v>2610.0259526725</v>
       </c>
       <c r="H67" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I67" t="n">
-        <v>11531.5107</v>
+        <v>9805.88746</v>
       </c>
       <c r="J67" t="n">
         <v>76.27118644067799</v>
@@ -5860,13 +5860,13 @@
         <v>1200</v>
       </c>
       <c r="G68" t="n">
-        <v>2668.08102973868</v>
+        <v>2610.0259526725</v>
       </c>
       <c r="H68" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I68" t="n">
-        <v>11531.5107</v>
+        <v>9805.88746</v>
       </c>
       <c r="J68" t="n">
         <v>76.27118644067799</v>
@@ -5945,13 +5945,13 @@
         <v>1200</v>
       </c>
       <c r="G69" t="n">
-        <v>2668.08102973868</v>
+        <v>2610.0259526725</v>
       </c>
       <c r="H69" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I69" t="n">
-        <v>11531.5107</v>
+        <v>9805.88746</v>
       </c>
       <c r="J69" t="n">
         <v>76.27118644067799</v>
@@ -6107,7 +6107,7 @@
         <v>0.009809999999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0171475584916679</v>
+        <v>0.0171488000607275</v>
       </c>
       <c r="H71" t="n">
         <v>0.171570669395899</v>
@@ -6188,7 +6188,7 @@
         <v>0.009809999999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0171475584916679</v>
+        <v>0.0171488000607275</v>
       </c>
       <c r="H72" t="n">
         <v>0.171570669395899</v>
@@ -6504,7 +6504,7 @@
         <v>2.27</v>
       </c>
       <c r="G76" t="n">
-        <v>2.26874576271186</v>
+        <v>2.26875423728814</v>
       </c>
       <c r="H76" t="n">
         <v>4.213</v>
@@ -6581,7 +6581,7 @@
         <v>2.27</v>
       </c>
       <c r="G77" t="n">
-        <v>2.26874576271186</v>
+        <v>2.26875423728814</v>
       </c>
       <c r="H77" t="n">
         <v>4.213</v>
@@ -7047,13 +7047,13 @@
         <v>0.37</v>
       </c>
       <c r="G83" t="n">
-        <v>0.55098260108813</v>
+        <v>0.563277771944512</v>
       </c>
       <c r="H83" t="n">
-        <v>1.78710834885832</v>
+        <v>2.1089516699727</v>
       </c>
       <c r="I83" t="n">
-        <v>1.74566</v>
+        <v>1.77959</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -7064,7 +7064,7 @@
         <v>1.3896</v>
       </c>
       <c r="N83" t="n">
-        <v>1.66887</v>
+        <v>1.7248</v>
       </c>
       <c r="O83" t="n">
         <v>1797784.6</v>
@@ -7290,13 +7290,13 @@
         <v>950</v>
       </c>
       <c r="G86" t="n">
-        <v>2496.9284873658</v>
+        <v>2438.87341029962</v>
       </c>
       <c r="H86" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I86" t="n">
-        <v>11531.5107</v>
+        <v>9805.88746</v>
       </c>
       <c r="J86" t="n">
         <v>71.1864406779661</v>
@@ -7375,13 +7375,13 @@
         <v>950</v>
       </c>
       <c r="G87" t="n">
-        <v>2496.9284873658</v>
+        <v>2438.87341029962</v>
       </c>
       <c r="H87" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I87" t="n">
-        <v>11531.5107</v>
+        <v>9805.88746</v>
       </c>
       <c r="J87" t="n">
         <v>71.1864406779661</v>
@@ -7460,13 +7460,13 @@
         <v>950</v>
       </c>
       <c r="G88" t="n">
-        <v>2496.9284873658</v>
+        <v>2438.87341029962</v>
       </c>
       <c r="H88" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I88" t="n">
-        <v>11531.5107</v>
+        <v>9805.88746</v>
       </c>
       <c r="J88" t="n">
         <v>71.1864406779661</v>
@@ -7545,13 +7545,13 @@
         <v>950</v>
       </c>
       <c r="G89" t="n">
-        <v>2496.9284873658</v>
+        <v>2438.87341029962</v>
       </c>
       <c r="H89" t="n">
-        <v>14852.4918197361</v>
+        <v>15081.2892247496</v>
       </c>
       <c r="I89" t="n">
-        <v>11531.5107</v>
+        <v>9805.88746</v>
       </c>
       <c r="J89" t="n">
         <v>71.1864406779661</v>
@@ -7707,7 +7707,7 @@
         <v>0.01069</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0177559593692062</v>
+        <v>0.0177570491093922</v>
       </c>
       <c r="H91" t="n">
         <v>0.171570669395899</v>
@@ -7788,7 +7788,7 @@
         <v>0.01069</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0177559593692062</v>
+        <v>0.0177570491093922</v>
       </c>
       <c r="H92" t="n">
         <v>0.171570669395899</v>
@@ -8104,7 +8104,7 @@
         <v>2.389</v>
       </c>
       <c r="G96" t="n">
-        <v>2.38384745762712</v>
+        <v>2.38385593220339</v>
       </c>
       <c r="H96" t="n">
         <v>4.213</v>
@@ -8181,7 +8181,7 @@
         <v>2.389</v>
       </c>
       <c r="G97" t="n">
-        <v>2.38384745762712</v>
+        <v>2.38385593220339</v>
       </c>
       <c r="H97" t="n">
         <v>4.213</v>
@@ -8540,6 +8540,1525 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.2938</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.31615</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0454576271186441</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.0793</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.03135</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.04656</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.0454576271186441</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.0793</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.03135</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.04656</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>820</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2524.39764265893</v>
+      </c>
+      <c r="H105" t="n">
+        <v>15081.2892247496</v>
+      </c>
+      <c r="I105" t="n">
+        <v>11805.18681</v>
+      </c>
+      <c r="J105" t="n">
+        <v>67.7966101694915</v>
+      </c>
+      <c r="K105" t="n">
+        <v>86.4406779661017</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1071.5</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3910.34</v>
+      </c>
+      <c r="N105" t="n">
+        <v>9700</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>820</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2524.39764265893</v>
+      </c>
+      <c r="H106" t="n">
+        <v>15081.2892247496</v>
+      </c>
+      <c r="I106" t="n">
+        <v>11805.18681</v>
+      </c>
+      <c r="J106" t="n">
+        <v>67.7966101694915</v>
+      </c>
+      <c r="K106" t="n">
+        <v>86.4406779661017</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1071.5</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3910.34</v>
+      </c>
+      <c r="N106" t="n">
+        <v>9700</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>820</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2524.39764265893</v>
+      </c>
+      <c r="H107" t="n">
+        <v>15081.2892247496</v>
+      </c>
+      <c r="I107" t="n">
+        <v>11805.18681</v>
+      </c>
+      <c r="J107" t="n">
+        <v>67.7966101694915</v>
+      </c>
+      <c r="K107" t="n">
+        <v>86.4406779661017</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1071.5</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3910.34</v>
+      </c>
+      <c r="N107" t="n">
+        <v>9700</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>820</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2524.39764265893</v>
+      </c>
+      <c r="H108" t="n">
+        <v>15081.2892247496</v>
+      </c>
+      <c r="I108" t="n">
+        <v>11805.18681</v>
+      </c>
+      <c r="J108" t="n">
+        <v>67.7966101694915</v>
+      </c>
+      <c r="K108" t="n">
+        <v>86.4406779661017</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1071.5</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3910.34</v>
+      </c>
+      <c r="N108" t="n">
+        <v>9700</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>95.45</v>
+      </c>
+      <c r="G109" t="n">
+        <v>95.33</v>
+      </c>
+      <c r="H109" t="n">
+        <v>100</v>
+      </c>
+      <c r="I109" t="n">
+        <v>100</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>95.45</v>
+      </c>
+      <c r="M109" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="N109" t="n">
+        <v>100</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0.01012</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.142734073346837</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6.80203865532054</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.05348</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>0.01029</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.02372</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.03849</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.01012</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.142734073346837</v>
+      </c>
+      <c r="H111" t="n">
+        <v>6.80203865532054</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.05348</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>0.01029</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.02372</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.03849</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2.39269491525424</v>
+      </c>
+      <c r="H112" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3.8695</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>2.555</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3.2594</v>
+      </c>
+      <c r="N112" t="n">
+        <v>3.6746</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2.39269491525424</v>
+      </c>
+      <c r="H113" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.8695</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>2.555</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3.2594</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3.6746</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4.4294</v>
+      </c>
+      <c r="H114" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4.7561</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>2.389</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2.66977118644068</v>
+      </c>
+      <c r="H115" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3.8923</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>2.578</v>
+      </c>
+      <c r="M115" t="n">
+        <v>3.28611</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>2.389</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2.66977118644068</v>
+      </c>
+      <c r="H116" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.8923</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>2.578</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3.28611</v>
+      </c>
+      <c r="N116" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3.05576271186441</v>
+      </c>
+      <c r="H117" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="I117" t="n">
+        <v>4.1155</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="M117" t="n">
+        <v>3.6081</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3.8034</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3.05576271186441</v>
+      </c>
+      <c r="H118" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4.1155</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>2.795</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3.6081</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3.8034</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P118" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.113983050847458</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.09588000000000001</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.23444</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Koputaroa at Tavistock Rd</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.113983050847458</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.09588000000000001</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.23444</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1797784.6</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>Mana_13e</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/KoputaroaatTavistockRd_f25e00c282.xlsx
+++ b/state_results/Rivers/KoputaroaatTavistockRd_f25e00c282.xlsx
@@ -647,13 +647,13 @@
         <v>0.52</v>
       </c>
       <c r="G3" t="n">
-        <v>0.753867344895107</v>
+        <v>0.717896537039844</v>
       </c>
       <c r="H3" t="n">
-        <v>3.21528941310661</v>
+        <v>2.23191063547774</v>
       </c>
       <c r="I3" t="n">
-        <v>2.11733</v>
+        <v>2.00345</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -664,7 +664,7 @@
         <v>1.3834</v>
       </c>
       <c r="N3" t="n">
-        <v>1.874</v>
+        <v>1.658</v>
       </c>
       <c r="O3" t="n">
         <v>1797784.6</v>
@@ -890,10 +890,10 @@
         <v>1195</v>
       </c>
       <c r="G6" t="n">
-        <v>2011.9106515125</v>
+        <v>2078.31653757377</v>
       </c>
       <c r="H6" t="n">
-        <v>10554.2057876778</v>
+        <v>12325.6568915598</v>
       </c>
       <c r="I6" t="n">
         <v>9678</v>
@@ -975,10 +975,10 @@
         <v>1195</v>
       </c>
       <c r="G7" t="n">
-        <v>2011.9106515125</v>
+        <v>2078.31653757377</v>
       </c>
       <c r="H7" t="n">
-        <v>10554.2057876778</v>
+        <v>12325.6568915598</v>
       </c>
       <c r="I7" t="n">
         <v>9678</v>
@@ -1060,10 +1060,10 @@
         <v>1195</v>
       </c>
       <c r="G8" t="n">
-        <v>2011.9106515125</v>
+        <v>2078.31653757377</v>
       </c>
       <c r="H8" t="n">
-        <v>10554.2057876778</v>
+        <v>12325.6568915598</v>
       </c>
       <c r="I8" t="n">
         <v>9678</v>
@@ -1145,10 +1145,10 @@
         <v>1195</v>
       </c>
       <c r="G9" t="n">
-        <v>2011.9106515125</v>
+        <v>2078.31653757377</v>
       </c>
       <c r="H9" t="n">
-        <v>10554.2057876778</v>
+        <v>12325.6568915598</v>
       </c>
       <c r="I9" t="n">
         <v>9678</v>
@@ -2247,13 +2247,13 @@
         <v>0.52</v>
       </c>
       <c r="G23" t="n">
-        <v>0.71455088935974</v>
+        <v>0.721679997349021</v>
       </c>
       <c r="H23" t="n">
-        <v>2.1089516699727</v>
+        <v>2.23191063547774</v>
       </c>
       <c r="I23" t="n">
-        <v>1.78327</v>
+        <v>1.988</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -2490,13 +2490,13 @@
         <v>1500</v>
       </c>
       <c r="G26" t="n">
-        <v>2319.85029439979</v>
+        <v>2297.48488657902</v>
       </c>
       <c r="H26" t="n">
-        <v>15081.2892247496</v>
+        <v>12325.6568915598</v>
       </c>
       <c r="I26" t="n">
-        <v>9796.261329999999</v>
+        <v>9760.70874</v>
       </c>
       <c r="J26" t="n">
         <v>75</v>
@@ -2575,13 +2575,13 @@
         <v>1500</v>
       </c>
       <c r="G27" t="n">
-        <v>2319.85029439979</v>
+        <v>2297.48488657902</v>
       </c>
       <c r="H27" t="n">
-        <v>15081.2892247496</v>
+        <v>12325.6568915598</v>
       </c>
       <c r="I27" t="n">
-        <v>9796.261329999999</v>
+        <v>9760.70874</v>
       </c>
       <c r="J27" t="n">
         <v>75</v>
@@ -2660,13 +2660,13 @@
         <v>1500</v>
       </c>
       <c r="G28" t="n">
-        <v>2319.85029439979</v>
+        <v>2297.48488657902</v>
       </c>
       <c r="H28" t="n">
-        <v>15081.2892247496</v>
+        <v>12325.6568915598</v>
       </c>
       <c r="I28" t="n">
-        <v>9796.261329999999</v>
+        <v>9760.70874</v>
       </c>
       <c r="J28" t="n">
         <v>75</v>
@@ -2745,13 +2745,13 @@
         <v>1500</v>
       </c>
       <c r="G29" t="n">
-        <v>2319.85029439979</v>
+        <v>2297.48488657902</v>
       </c>
       <c r="H29" t="n">
-        <v>15081.2892247496</v>
+        <v>12325.6568915598</v>
       </c>
       <c r="I29" t="n">
-        <v>9796.261329999999</v>
+        <v>9760.70874</v>
       </c>
       <c r="J29" t="n">
         <v>75</v>
@@ -3847,13 +3847,13 @@
         <v>0.45</v>
       </c>
       <c r="G43" t="n">
-        <v>0.638541366938583</v>
+        <v>0.646277207522696</v>
       </c>
       <c r="H43" t="n">
-        <v>2.1089516699727</v>
+        <v>2.23191063547774</v>
       </c>
       <c r="I43" t="n">
-        <v>1.76367</v>
+        <v>1.79977</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -4090,13 +4090,13 @@
         <v>1500</v>
       </c>
       <c r="G46" t="n">
-        <v>2634.53791517552</v>
+        <v>2594.20336160829</v>
       </c>
       <c r="H46" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I46" t="n">
-        <v>10256.44838</v>
+        <v>11041.09822</v>
       </c>
       <c r="J46" t="n">
         <v>74.57627118644071</v>
@@ -4175,13 +4175,13 @@
         <v>1500</v>
       </c>
       <c r="G47" t="n">
-        <v>2634.53791517552</v>
+        <v>2594.20336160829</v>
       </c>
       <c r="H47" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I47" t="n">
-        <v>10256.44838</v>
+        <v>11041.09822</v>
       </c>
       <c r="J47" t="n">
         <v>74.57627118644071</v>
@@ -4260,13 +4260,13 @@
         <v>1500</v>
       </c>
       <c r="G48" t="n">
-        <v>2634.53791517552</v>
+        <v>2594.20336160829</v>
       </c>
       <c r="H48" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I48" t="n">
-        <v>10256.44838</v>
+        <v>11041.09822</v>
       </c>
       <c r="J48" t="n">
         <v>74.57627118644071</v>
@@ -4345,13 +4345,13 @@
         <v>1500</v>
       </c>
       <c r="G49" t="n">
-        <v>2634.53791517552</v>
+        <v>2594.20336160829</v>
       </c>
       <c r="H49" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I49" t="n">
-        <v>10256.44838</v>
+        <v>11041.09822</v>
       </c>
       <c r="J49" t="n">
         <v>74.57627118644071</v>
@@ -5447,13 +5447,13 @@
         <v>0.425</v>
       </c>
       <c r="G63" t="n">
-        <v>0.588843910621748</v>
+        <v>0.597500684608732</v>
       </c>
       <c r="H63" t="n">
-        <v>2.1089516699727</v>
+        <v>2.23191063547774</v>
       </c>
       <c r="I63" t="n">
-        <v>1.7698</v>
+        <v>1.86605</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -5690,13 +5690,13 @@
         <v>1200</v>
       </c>
       <c r="G66" t="n">
-        <v>2610.0259526725</v>
+        <v>2539.66680412422</v>
       </c>
       <c r="H66" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I66" t="n">
-        <v>9805.88746</v>
+        <v>9766.77961</v>
       </c>
       <c r="J66" t="n">
         <v>76.27118644067799</v>
@@ -5775,13 +5775,13 @@
         <v>1200</v>
       </c>
       <c r="G67" t="n">
-        <v>2610.0259526725</v>
+        <v>2539.66680412422</v>
       </c>
       <c r="H67" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I67" t="n">
-        <v>9805.88746</v>
+        <v>9766.77961</v>
       </c>
       <c r="J67" t="n">
         <v>76.27118644067799</v>
@@ -5860,13 +5860,13 @@
         <v>1200</v>
       </c>
       <c r="G68" t="n">
-        <v>2610.0259526725</v>
+        <v>2539.66680412422</v>
       </c>
       <c r="H68" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I68" t="n">
-        <v>9805.88746</v>
+        <v>9766.77961</v>
       </c>
       <c r="J68" t="n">
         <v>76.27118644067799</v>
@@ -5945,13 +5945,13 @@
         <v>1200</v>
       </c>
       <c r="G69" t="n">
-        <v>2610.0259526725</v>
+        <v>2539.66680412422</v>
       </c>
       <c r="H69" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I69" t="n">
-        <v>9805.88746</v>
+        <v>9766.77961</v>
       </c>
       <c r="J69" t="n">
         <v>76.27118644067799</v>
@@ -7047,13 +7047,13 @@
         <v>0.37</v>
       </c>
       <c r="G83" t="n">
-        <v>0.563277771944512</v>
+        <v>0.573971433928433</v>
       </c>
       <c r="H83" t="n">
-        <v>2.1089516699727</v>
+        <v>2.23191063547774</v>
       </c>
       <c r="I83" t="n">
-        <v>1.77959</v>
+        <v>1.97209</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -7290,13 +7290,13 @@
         <v>950</v>
       </c>
       <c r="G86" t="n">
-        <v>2438.87341029962</v>
+        <v>2368.51426175134</v>
       </c>
       <c r="H86" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I86" t="n">
-        <v>9805.88746</v>
+        <v>9766.77961</v>
       </c>
       <c r="J86" t="n">
         <v>71.1864406779661</v>
@@ -7375,13 +7375,13 @@
         <v>950</v>
       </c>
       <c r="G87" t="n">
-        <v>2438.87341029962</v>
+        <v>2368.51426175134</v>
       </c>
       <c r="H87" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I87" t="n">
-        <v>9805.88746</v>
+        <v>9766.77961</v>
       </c>
       <c r="J87" t="n">
         <v>71.1864406779661</v>
@@ -7460,13 +7460,13 @@
         <v>950</v>
       </c>
       <c r="G88" t="n">
-        <v>2438.87341029962</v>
+        <v>2368.51426175134</v>
       </c>
       <c r="H88" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I88" t="n">
-        <v>9805.88746</v>
+        <v>9766.77961</v>
       </c>
       <c r="J88" t="n">
         <v>71.1864406779661</v>
@@ -7545,13 +7545,13 @@
         <v>950</v>
       </c>
       <c r="G89" t="n">
-        <v>2438.87341029962</v>
+        <v>2368.51426175134</v>
       </c>
       <c r="H89" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I89" t="n">
-        <v>9805.88746</v>
+        <v>9766.77961</v>
       </c>
       <c r="J89" t="n">
         <v>71.1864406779661</v>
@@ -8809,13 +8809,13 @@
         <v>820</v>
       </c>
       <c r="G105" t="n">
-        <v>2524.39764265893</v>
+        <v>2366.40761328121</v>
       </c>
       <c r="H105" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I105" t="n">
-        <v>11805.18681</v>
+        <v>9766.77961</v>
       </c>
       <c r="J105" t="n">
         <v>67.7966101694915</v>
@@ -8894,13 +8894,13 @@
         <v>820</v>
       </c>
       <c r="G106" t="n">
-        <v>2524.39764265893</v>
+        <v>2366.40761328121</v>
       </c>
       <c r="H106" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I106" t="n">
-        <v>11805.18681</v>
+        <v>9766.77961</v>
       </c>
       <c r="J106" t="n">
         <v>67.7966101694915</v>
@@ -8979,13 +8979,13 @@
         <v>820</v>
       </c>
       <c r="G107" t="n">
-        <v>2524.39764265893</v>
+        <v>2366.40761328121</v>
       </c>
       <c r="H107" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I107" t="n">
-        <v>11805.18681</v>
+        <v>9766.77961</v>
       </c>
       <c r="J107" t="n">
         <v>67.7966101694915</v>
@@ -9064,13 +9064,13 @@
         <v>820</v>
       </c>
       <c r="G108" t="n">
-        <v>2524.39764265893</v>
+        <v>2366.40761328121</v>
       </c>
       <c r="H108" t="n">
-        <v>15081.2892247496</v>
+        <v>12894.905140148</v>
       </c>
       <c r="I108" t="n">
-        <v>11805.18681</v>
+        <v>9766.77961</v>
       </c>
       <c r="J108" t="n">
         <v>67.7966101694915</v>

--- a/state_results/Rivers/KoputaroaatTavistockRd_f25e00c282.xlsx
+++ b/state_results/Rivers/KoputaroaatTavistockRd_f25e00c282.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="67">
   <si>
     <t>site name</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U120"/>
+  <dimension ref="A1:U139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,7 +657,7 @@
         <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>0.316</v>
@@ -684,16 +687,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -710,25 +713,25 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>0.52</v>
       </c>
       <c r="G3">
-        <v>0.720815370815478</v>
+        <v>0.70565735383449</v>
       </c>
       <c r="H3">
-        <v>2.3832116963262</v>
+        <v>2.15150195655114</v>
       </c>
       <c r="I3">
-        <v>2.00192</v>
+        <v>1.91179</v>
       </c>
       <c r="L3">
-        <v>0.9</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M3">
-        <v>1.3834</v>
+        <v>1.3302</v>
       </c>
       <c r="N3">
         <v>1.658</v>
@@ -740,19 +743,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -769,7 +772,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>0.017</v>
@@ -799,19 +802,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -828,7 +831,7 @@
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>0.017</v>
@@ -858,19 +861,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -887,16 +890,16 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>1195</v>
       </c>
       <c r="G6">
-        <v>2106.31071562822</v>
+        <v>2048.04380719551</v>
       </c>
       <c r="H6">
-        <v>14776.5611802463</v>
+        <v>12639.8858119506</v>
       </c>
       <c r="I6">
         <v>9678</v>
@@ -908,7 +911,7 @@
         <v>93.22033898305089</v>
       </c>
       <c r="L6">
-        <v>1197.5</v>
+        <v>1200</v>
       </c>
       <c r="M6">
         <v>3194</v>
@@ -923,19 +926,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -952,16 +955,16 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>1195</v>
       </c>
       <c r="G7">
-        <v>2106.31071562822</v>
+        <v>2048.04380719551</v>
       </c>
       <c r="H7">
-        <v>14776.5611802463</v>
+        <v>12639.8858119506</v>
       </c>
       <c r="I7">
         <v>9678</v>
@@ -973,7 +976,7 @@
         <v>93.22033898305089</v>
       </c>
       <c r="L7">
-        <v>1197.5</v>
+        <v>1200</v>
       </c>
       <c r="M7">
         <v>3194</v>
@@ -988,19 +991,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1017,16 +1020,16 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8">
         <v>1195</v>
       </c>
       <c r="G8">
-        <v>2106.31071562822</v>
+        <v>2048.04380719551</v>
       </c>
       <c r="H8">
-        <v>14776.5611802463</v>
+        <v>12639.8858119506</v>
       </c>
       <c r="I8">
         <v>9678</v>
@@ -1038,7 +1041,7 @@
         <v>93.22033898305089</v>
       </c>
       <c r="L8">
-        <v>1197.5</v>
+        <v>1200</v>
       </c>
       <c r="M8">
         <v>3194</v>
@@ -1053,19 +1056,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1082,16 +1085,16 @@
         <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>1195</v>
       </c>
       <c r="G9">
-        <v>2106.31071562822</v>
+        <v>2048.04380719551</v>
       </c>
       <c r="H9">
-        <v>14776.5611802463</v>
+        <v>12639.8858119506</v>
       </c>
       <c r="I9">
         <v>9678</v>
@@ -1103,7 +1106,7 @@
         <v>93.22033898305089</v>
       </c>
       <c r="L9">
-        <v>1197.5</v>
+        <v>1200</v>
       </c>
       <c r="M9">
         <v>3194</v>
@@ -1118,19 +1121,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1147,7 +1150,7 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>88</v>
@@ -1177,16 +1180,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1203,13 +1206,13 @@
         <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>0.00361</v>
       </c>
       <c r="G11">
-        <v>0.0110837884831199</v>
+        <v>0.0110896306188388</v>
       </c>
       <c r="H11">
         <v>0.171570669395899</v>
@@ -1218,7 +1221,7 @@
         <v>0.03493</v>
       </c>
       <c r="L11">
-        <v>0.00234</v>
+        <v>0.00285</v>
       </c>
       <c r="M11">
         <v>0.01876</v>
@@ -1233,19 +1236,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1262,13 +1265,13 @@
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>0.00361</v>
       </c>
       <c r="G12">
-        <v>0.0110837884831199</v>
+        <v>0.0110896306188388</v>
       </c>
       <c r="H12">
         <v>0.171570669395899</v>
@@ -1277,7 +1280,7 @@
         <v>0.03493</v>
       </c>
       <c r="L12">
-        <v>0.00234</v>
+        <v>0.00285</v>
       </c>
       <c r="M12">
         <v>0.01876</v>
@@ -1292,19 +1295,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1321,7 +1324,7 @@
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13">
         <v>2.38</v>
@@ -1336,7 +1339,7 @@
         <v>4.25766</v>
       </c>
       <c r="L13">
-        <v>2.5913</v>
+        <v>2.4813</v>
       </c>
       <c r="M13">
         <v>3.57168</v>
@@ -1351,19 +1354,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1380,7 +1383,7 @@
         <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14">
         <v>2.38</v>
@@ -1395,7 +1398,7 @@
         <v>4.25766</v>
       </c>
       <c r="L14">
-        <v>2.5913</v>
+        <v>2.4813</v>
       </c>
       <c r="M14">
         <v>3.57168</v>
@@ -1410,19 +1413,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1439,7 +1442,7 @@
         <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15">
         <v>4.04</v>
@@ -1469,16 +1472,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1492,7 +1495,7 @@
         <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <v>2.405</v>
@@ -1507,7 +1510,7 @@
         <v>4.28365</v>
       </c>
       <c r="L16">
-        <v>2.665</v>
+        <v>2.5575</v>
       </c>
       <c r="M16">
         <v>3.61092</v>
@@ -1522,19 +1525,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1548,7 +1551,7 @@
         <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <v>2.405</v>
@@ -1563,7 +1566,7 @@
         <v>4.28365</v>
       </c>
       <c r="L17">
-        <v>2.665</v>
+        <v>2.5575</v>
       </c>
       <c r="M17">
         <v>3.61092</v>
@@ -1578,19 +1581,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1604,7 +1607,7 @@
         <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>2.82</v>
@@ -1619,7 +1622,7 @@
         <v>4.52185</v>
       </c>
       <c r="L18">
-        <v>3.279</v>
+        <v>3.004</v>
       </c>
       <c r="M18">
         <v>3.8094</v>
@@ -1634,19 +1637,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1660,7 +1663,7 @@
         <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>2.82</v>
@@ -1675,7 +1678,7 @@
         <v>4.52185</v>
       </c>
       <c r="L19">
-        <v>3.279</v>
+        <v>3.004</v>
       </c>
       <c r="M19">
         <v>3.8094</v>
@@ -1690,19 +1693,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1716,7 +1719,7 @@
         <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>0.05</v>
@@ -1731,7 +1734,7 @@
         <v>0.1323</v>
       </c>
       <c r="L20">
-        <v>0.0445</v>
+        <v>0.046</v>
       </c>
       <c r="M20">
         <v>0.09035</v>
@@ -1746,19 +1749,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1772,7 +1775,7 @@
         <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <v>0.05</v>
@@ -1787,7 +1790,7 @@
         <v>0.1323</v>
       </c>
       <c r="L21">
-        <v>0.0445</v>
+        <v>0.046</v>
       </c>
       <c r="M21">
         <v>0.09035</v>
@@ -1802,19 +1805,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1831,7 +1834,7 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22">
         <v>0.299</v>
@@ -1861,16 +1864,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1887,28 +1890,28 @@
         <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23">
         <v>0.52</v>
       </c>
       <c r="G23">
-        <v>0.705802457724289</v>
+        <v>0.7362469865168541</v>
       </c>
       <c r="H23">
-        <v>2.03839367179913</v>
+        <v>3.09371340324252</v>
       </c>
       <c r="I23">
-        <v>1.757</v>
+        <v>1.89979</v>
       </c>
       <c r="L23">
-        <v>0.75</v>
+        <v>0.52</v>
       </c>
       <c r="M23">
-        <v>1.43471</v>
+        <v>1.4483</v>
       </c>
       <c r="N23">
-        <v>1.642</v>
+        <v>1.7252</v>
       </c>
       <c r="O23">
         <v>1797784.6</v>
@@ -1917,19 +1920,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1946,7 +1949,7 @@
         <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24">
         <v>0.018</v>
@@ -1961,7 +1964,7 @@
         <v>0.034</v>
       </c>
       <c r="L24">
-        <v>0.02</v>
+        <v>0.0195</v>
       </c>
       <c r="M24">
         <v>0.0223</v>
@@ -1976,19 +1979,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2005,7 +2008,7 @@
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25">
         <v>0.018</v>
@@ -2020,7 +2023,7 @@
         <v>0.034</v>
       </c>
       <c r="L25">
-        <v>0.02</v>
+        <v>0.0195</v>
       </c>
       <c r="M25">
         <v>0.0223</v>
@@ -2035,19 +2038,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2064,19 +2067,19 @@
         <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26">
         <v>1500</v>
       </c>
       <c r="G26">
-        <v>2323.69618174587</v>
+        <v>2286.95433732599</v>
       </c>
       <c r="H26">
-        <v>14776.5611802463</v>
+        <v>12639.8858119506</v>
       </c>
       <c r="I26">
-        <v>9721.21934</v>
+        <v>9819.349410000001</v>
       </c>
       <c r="J26">
         <v>75</v>
@@ -2085,7 +2088,7 @@
         <v>93.3333333333333</v>
       </c>
       <c r="L26">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M26">
         <v>3360</v>
@@ -2100,19 +2103,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2129,19 +2132,19 @@
         <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27">
         <v>1500</v>
       </c>
       <c r="G27">
-        <v>2323.69618174587</v>
+        <v>2286.95433732599</v>
       </c>
       <c r="H27">
-        <v>14776.5611802463</v>
+        <v>12639.8858119506</v>
       </c>
       <c r="I27">
-        <v>9721.21934</v>
+        <v>9819.349410000001</v>
       </c>
       <c r="J27">
         <v>75</v>
@@ -2150,7 +2153,7 @@
         <v>93.3333333333333</v>
       </c>
       <c r="L27">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M27">
         <v>3360</v>
@@ -2165,19 +2168,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2194,19 +2197,19 @@
         <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28">
         <v>1500</v>
       </c>
       <c r="G28">
-        <v>2323.69618174587</v>
+        <v>2286.95433732599</v>
       </c>
       <c r="H28">
-        <v>14776.5611802463</v>
+        <v>12639.8858119506</v>
       </c>
       <c r="I28">
-        <v>9721.21934</v>
+        <v>9819.349410000001</v>
       </c>
       <c r="J28">
         <v>75</v>
@@ -2215,7 +2218,7 @@
         <v>93.3333333333333</v>
       </c>
       <c r="L28">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M28">
         <v>3360</v>
@@ -2230,19 +2233,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2259,19 +2262,19 @@
         <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29">
         <v>1500</v>
       </c>
       <c r="G29">
-        <v>2323.69618174587</v>
+        <v>2286.95433732599</v>
       </c>
       <c r="H29">
-        <v>14776.5611802463</v>
+        <v>12639.8858119506</v>
       </c>
       <c r="I29">
-        <v>9721.21934</v>
+        <v>9819.349410000001</v>
       </c>
       <c r="J29">
         <v>75</v>
@@ -2280,7 +2283,7 @@
         <v>93.3333333333333</v>
       </c>
       <c r="L29">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M29">
         <v>3360</v>
@@ -2295,19 +2298,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2324,7 +2327,7 @@
         <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30">
         <v>88</v>
@@ -2354,16 +2357,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2380,13 +2383,13 @@
         <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31">
         <v>0.00495</v>
       </c>
       <c r="G31">
-        <v>0.0121066491606864</v>
+        <v>0.0121120878147492</v>
       </c>
       <c r="H31">
         <v>0.171570669395899</v>
@@ -2395,7 +2398,7 @@
         <v>0.0299</v>
       </c>
       <c r="L31">
-        <v>0.00639</v>
+        <v>0.00495</v>
       </c>
       <c r="M31">
         <v>0.01879</v>
@@ -2410,19 +2413,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2439,13 +2442,13 @@
         <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32">
         <v>0.00495</v>
       </c>
       <c r="G32">
-        <v>0.0121066491606864</v>
+        <v>0.0121120878147492</v>
       </c>
       <c r="H32">
         <v>0.171570669395899</v>
@@ -2454,7 +2457,7 @@
         <v>0.0299</v>
       </c>
       <c r="L32">
-        <v>0.00639</v>
+        <v>0.00495</v>
       </c>
       <c r="M32">
         <v>0.01879</v>
@@ -2469,19 +2472,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2498,7 +2501,7 @@
         <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33">
         <v>2.235</v>
@@ -2513,7 +2516,7 @@
         <v>4.2574</v>
       </c>
       <c r="L33">
-        <v>2.49</v>
+        <v>2.355</v>
       </c>
       <c r="M33">
         <v>3.428</v>
@@ -2528,19 +2531,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2557,7 +2560,7 @@
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F34">
         <v>2.235</v>
@@ -2572,7 +2575,7 @@
         <v>4.2574</v>
       </c>
       <c r="L34">
-        <v>2.49</v>
+        <v>2.355</v>
       </c>
       <c r="M34">
         <v>3.428</v>
@@ -2587,19 +2590,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2616,7 +2619,7 @@
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35">
         <v>4.04</v>
@@ -2646,16 +2649,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2669,7 +2672,7 @@
         <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F36">
         <v>2.315</v>
@@ -2684,7 +2687,7 @@
         <v>4.28295</v>
       </c>
       <c r="L36">
-        <v>2.57</v>
+        <v>2.405</v>
       </c>
       <c r="M36">
         <v>3.456</v>
@@ -2699,19 +2702,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2725,7 +2728,7 @@
         <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F37">
         <v>2.315</v>
@@ -2740,7 +2743,7 @@
         <v>4.28295</v>
       </c>
       <c r="L37">
-        <v>2.57</v>
+        <v>2.405</v>
       </c>
       <c r="M37">
         <v>3.456</v>
@@ -2755,19 +2758,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2781,7 +2784,7 @@
         <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F38">
         <v>2.67</v>
@@ -2796,7 +2799,7 @@
         <v>4.44</v>
       </c>
       <c r="L38">
-        <v>2.98</v>
+        <v>2.715</v>
       </c>
       <c r="M38">
         <v>3.7395</v>
@@ -2811,19 +2814,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2837,7 +2840,7 @@
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39">
         <v>2.67</v>
@@ -2852,7 +2855,7 @@
         <v>4.44</v>
       </c>
       <c r="L39">
-        <v>2.98</v>
+        <v>2.715</v>
       </c>
       <c r="M39">
         <v>3.7395</v>
@@ -2867,19 +2870,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2893,7 +2896,7 @@
         <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40">
         <v>0.046</v>
@@ -2908,7 +2911,7 @@
         <v>0.14</v>
       </c>
       <c r="L40">
-        <v>0.0445</v>
+        <v>0.046</v>
       </c>
       <c r="M40">
         <v>0.0945</v>
@@ -2923,19 +2926,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2949,7 +2952,7 @@
         <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F41">
         <v>0.046</v>
@@ -2964,7 +2967,7 @@
         <v>0.14</v>
       </c>
       <c r="L41">
-        <v>0.0445</v>
+        <v>0.046</v>
       </c>
       <c r="M41">
         <v>0.0945</v>
@@ -2979,19 +2982,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3008,7 +3011,7 @@
         <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42">
         <v>0.299</v>
@@ -3038,16 +3041,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3064,28 +3067,28 @@
         <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43">
         <v>0.45</v>
       </c>
       <c r="G43">
-        <v>0.629048387929902</v>
+        <v>0.6621034851006971</v>
       </c>
       <c r="H43">
-        <v>2.03839367179913</v>
+        <v>3.09371340324252</v>
       </c>
       <c r="I43">
-        <v>1.624</v>
+        <v>1.78207</v>
       </c>
       <c r="L43">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
       <c r="M43">
-        <v>1.39473</v>
+        <v>1.4106</v>
       </c>
       <c r="N43">
-        <v>1.5688</v>
+        <v>1.6</v>
       </c>
       <c r="O43">
         <v>1797784.6</v>
@@ -3094,19 +3097,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3123,7 +3126,7 @@
         <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44">
         <v>0.018</v>
@@ -3138,7 +3141,7 @@
         <v>0.045</v>
       </c>
       <c r="L44">
-        <v>0.0195</v>
+        <v>0.019</v>
       </c>
       <c r="M44">
         <v>0.02247</v>
@@ -3153,19 +3156,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3182,7 +3185,7 @@
         <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F45">
         <v>0.018</v>
@@ -3197,7 +3200,7 @@
         <v>0.045</v>
       </c>
       <c r="L45">
-        <v>0.0195</v>
+        <v>0.019</v>
       </c>
       <c r="M45">
         <v>0.02247</v>
@@ -3212,19 +3215,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3241,19 +3244,19 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46">
         <v>1500</v>
       </c>
       <c r="G46">
-        <v>2653.74272746758</v>
+        <v>2580.4196183178</v>
       </c>
       <c r="H46">
-        <v>14835.0500158349</v>
+        <v>12713.4972411912</v>
       </c>
       <c r="I46">
-        <v>10565.97148</v>
+        <v>10509.03605</v>
       </c>
       <c r="J46">
         <v>74.57627118644071</v>
@@ -3277,19 +3280,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3306,19 +3309,19 @@
         <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47">
         <v>1500</v>
       </c>
       <c r="G47">
-        <v>2653.74272746758</v>
+        <v>2580.4196183178</v>
       </c>
       <c r="H47">
-        <v>14835.0500158349</v>
+        <v>12713.4972411912</v>
       </c>
       <c r="I47">
-        <v>10565.97148</v>
+        <v>10509.03605</v>
       </c>
       <c r="J47">
         <v>74.57627118644071</v>
@@ -3342,19 +3345,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3371,19 +3374,19 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48">
         <v>1500</v>
       </c>
       <c r="G48">
-        <v>2653.74272746758</v>
+        <v>2580.4196183178</v>
       </c>
       <c r="H48">
-        <v>14835.0500158349</v>
+        <v>12713.4972411912</v>
       </c>
       <c r="I48">
-        <v>10565.97148</v>
+        <v>10509.03605</v>
       </c>
       <c r="J48">
         <v>74.57627118644071</v>
@@ -3407,19 +3410,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3436,19 +3439,19 @@
         <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49">
         <v>1500</v>
       </c>
       <c r="G49">
-        <v>2653.74272746758</v>
+        <v>2580.4196183178</v>
       </c>
       <c r="H49">
-        <v>14835.0500158349</v>
+        <v>12713.4972411912</v>
       </c>
       <c r="I49">
-        <v>10565.97148</v>
+        <v>10509.03605</v>
       </c>
       <c r="J49">
         <v>74.57627118644071</v>
@@ -3472,19 +3475,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3501,7 +3504,7 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F50">
         <v>92</v>
@@ -3531,16 +3534,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3557,13 +3560,13 @@
         <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F51">
         <v>0.00946</v>
       </c>
       <c r="G51">
-        <v>0.0162672526737352</v>
+        <v>0.01627155978165</v>
       </c>
       <c r="H51">
         <v>0.171570669395899</v>
@@ -3572,7 +3575,7 @@
         <v>0.04502</v>
       </c>
       <c r="L51">
-        <v>0.0097</v>
+        <v>0.008619999999999999</v>
       </c>
       <c r="M51">
         <v>0.02353</v>
@@ -3587,19 +3590,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3616,13 +3619,13 @@
         <v>49</v>
       </c>
       <c r="E52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F52">
         <v>0.00946</v>
       </c>
       <c r="G52">
-        <v>0.0162672526737352</v>
+        <v>0.01627155978165</v>
       </c>
       <c r="H52">
         <v>0.171570669395899</v>
@@ -3631,7 +3634,7 @@
         <v>0.04502</v>
       </c>
       <c r="L52">
-        <v>0.0097</v>
+        <v>0.008619999999999999</v>
       </c>
       <c r="M52">
         <v>0.02353</v>
@@ -3646,19 +3649,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3675,7 +3678,7 @@
         <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F53">
         <v>2.25</v>
@@ -3690,7 +3693,7 @@
         <v>3.773</v>
       </c>
       <c r="L53">
-        <v>2.49</v>
+        <v>2.37</v>
       </c>
       <c r="M53">
         <v>3.2594</v>
@@ -3705,19 +3708,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3734,7 +3737,7 @@
         <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F54">
         <v>2.25</v>
@@ -3749,7 +3752,7 @@
         <v>3.773</v>
       </c>
       <c r="L54">
-        <v>2.49</v>
+        <v>2.37</v>
       </c>
       <c r="M54">
         <v>3.2594</v>
@@ -3764,19 +3767,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3793,7 +3796,7 @@
         <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F55">
         <v>4.08</v>
@@ -3823,16 +3826,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3846,7 +3849,7 @@
         <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F56">
         <v>2.36</v>
@@ -3861,7 +3864,7 @@
         <v>3.79475</v>
       </c>
       <c r="L56">
-        <v>2.5625</v>
+        <v>2.405</v>
       </c>
       <c r="M56">
         <v>3.28611</v>
@@ -3876,19 +3879,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3902,7 +3905,7 @@
         <v>49</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F57">
         <v>2.36</v>
@@ -3917,7 +3920,7 @@
         <v>3.79475</v>
       </c>
       <c r="L57">
-        <v>2.5625</v>
+        <v>2.405</v>
       </c>
       <c r="M57">
         <v>3.28611</v>
@@ -3932,19 +3935,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3958,7 +3961,7 @@
         <v>49</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58">
         <v>2.7</v>
@@ -3973,7 +3976,7 @@
         <v>4.154</v>
       </c>
       <c r="L58">
-        <v>2.83</v>
+        <v>2.75</v>
       </c>
       <c r="M58">
         <v>3.6941</v>
@@ -3988,19 +3991,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4014,7 +4017,7 @@
         <v>49</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F59">
         <v>2.7</v>
@@ -4029,7 +4032,7 @@
         <v>4.154</v>
       </c>
       <c r="L59">
-        <v>2.83</v>
+        <v>2.75</v>
       </c>
       <c r="M59">
         <v>3.6941</v>
@@ -4044,19 +4047,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4070,7 +4073,7 @@
         <v>49</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F60">
         <v>0.047</v>
@@ -4085,7 +4088,7 @@
         <v>0.2483</v>
       </c>
       <c r="L60">
-        <v>0.0445</v>
+        <v>0.046</v>
       </c>
       <c r="M60">
         <v>0.09535</v>
@@ -4100,19 +4103,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4126,7 +4129,7 @@
         <v>49</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F61">
         <v>0.047</v>
@@ -4141,7 +4144,7 @@
         <v>0.2483</v>
       </c>
       <c r="L61">
-        <v>0.0445</v>
+        <v>0.046</v>
       </c>
       <c r="M61">
         <v>0.09535</v>
@@ -4156,19 +4159,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4185,7 +4188,7 @@
         <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F62">
         <v>0.309</v>
@@ -4215,16 +4218,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4241,28 +4244,28 @@
         <v>50</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F63">
         <v>0.425</v>
       </c>
       <c r="G63">
-        <v>0.578220815064414</v>
+        <v>0.61521104285078</v>
       </c>
       <c r="H63">
-        <v>2.03839367179913</v>
+        <v>3.09371340324252</v>
       </c>
       <c r="I63">
-        <v>1.664</v>
+        <v>1.81886</v>
       </c>
       <c r="L63">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="M63">
-        <v>1.3264</v>
+        <v>1.3376</v>
       </c>
       <c r="N63">
-        <v>1.6</v>
+        <v>1.6224</v>
       </c>
       <c r="O63">
         <v>1797784.6</v>
@@ -4271,19 +4274,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4300,7 +4303,7 @@
         <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F64">
         <v>0.017</v>
@@ -4330,19 +4333,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4359,7 +4362,7 @@
         <v>50</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F65">
         <v>0.017</v>
@@ -4389,19 +4392,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4418,19 +4421,19 @@
         <v>50</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F66">
         <v>1200</v>
       </c>
       <c r="G66">
-        <v>2617.61101489439</v>
+        <v>2520.55714692881</v>
       </c>
       <c r="H66">
-        <v>14835.0500158349</v>
+        <v>12713.4972411912</v>
       </c>
       <c r="I66">
-        <v>9723.341280000001</v>
+        <v>9831.28435</v>
       </c>
       <c r="J66">
         <v>76.27118644067799</v>
@@ -4454,19 +4457,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4483,19 +4486,19 @@
         <v>50</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F67">
         <v>1200</v>
       </c>
       <c r="G67">
-        <v>2617.61101489439</v>
+        <v>2520.55714692881</v>
       </c>
       <c r="H67">
-        <v>14835.0500158349</v>
+        <v>12713.4972411912</v>
       </c>
       <c r="I67">
-        <v>9723.341280000001</v>
+        <v>9831.28435</v>
       </c>
       <c r="J67">
         <v>76.27118644067799</v>
@@ -4519,19 +4522,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4548,19 +4551,19 @@
         <v>50</v>
       </c>
       <c r="E68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F68">
         <v>1200</v>
       </c>
       <c r="G68">
-        <v>2617.61101489439</v>
+        <v>2520.55714692881</v>
       </c>
       <c r="H68">
-        <v>14835.0500158349</v>
+        <v>12713.4972411912</v>
       </c>
       <c r="I68">
-        <v>9723.341280000001</v>
+        <v>9831.28435</v>
       </c>
       <c r="J68">
         <v>76.27118644067799</v>
@@ -4584,19 +4587,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4613,19 +4616,19 @@
         <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F69">
         <v>1200</v>
       </c>
       <c r="G69">
-        <v>2617.61101489439</v>
+        <v>2520.55714692881</v>
       </c>
       <c r="H69">
-        <v>14835.0500158349</v>
+        <v>12713.4972411912</v>
       </c>
       <c r="I69">
-        <v>9723.341280000001</v>
+        <v>9831.28435</v>
       </c>
       <c r="J69">
         <v>76.27118644067799</v>
@@ -4649,19 +4652,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4678,7 +4681,7 @@
         <v>50</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F70">
         <v>96</v>
@@ -4708,16 +4711,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4734,13 +4737,13 @@
         <v>50</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F71">
         <v>0.009809999999999999</v>
       </c>
       <c r="G71">
-        <v>0.0171488000607275</v>
+        <v>0.0171491588653435</v>
       </c>
       <c r="H71">
         <v>0.171570669395899</v>
@@ -4749,7 +4752,7 @@
         <v>0.04566</v>
       </c>
       <c r="L71">
-        <v>0.01148</v>
+        <v>0.009390000000000001</v>
       </c>
       <c r="M71">
         <v>0.02438</v>
@@ -4764,19 +4767,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4793,13 +4796,13 @@
         <v>50</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72">
         <v>0.009809999999999999</v>
       </c>
       <c r="G72">
-        <v>0.0171488000607275</v>
+        <v>0.0171491588653435</v>
       </c>
       <c r="H72">
         <v>0.171570669395899</v>
@@ -4808,7 +4811,7 @@
         <v>0.04566</v>
       </c>
       <c r="L72">
-        <v>0.01148</v>
+        <v>0.009390000000000001</v>
       </c>
       <c r="M72">
         <v>0.02438</v>
@@ -4823,19 +4826,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4852,7 +4855,7 @@
         <v>50</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F73">
         <v>2.22</v>
@@ -4867,7 +4870,7 @@
         <v>3.602</v>
       </c>
       <c r="L73">
-        <v>2.525</v>
+        <v>2.37</v>
       </c>
       <c r="M73">
         <v>3.0288</v>
@@ -4882,19 +4885,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4911,7 +4914,7 @@
         <v>50</v>
       </c>
       <c r="E74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F74">
         <v>2.22</v>
@@ -4926,7 +4929,7 @@
         <v>3.602</v>
       </c>
       <c r="L74">
-        <v>2.525</v>
+        <v>2.37</v>
       </c>
       <c r="M74">
         <v>3.0288</v>
@@ -4941,19 +4944,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4970,7 +4973,7 @@
         <v>50</v>
       </c>
       <c r="E75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F75">
         <v>4.171</v>
@@ -5000,16 +5003,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5023,7 +5026,7 @@
         <v>50</v>
       </c>
       <c r="E76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F76">
         <v>2.27</v>
@@ -5038,7 +5041,7 @@
         <v>3.62645</v>
       </c>
       <c r="L76">
-        <v>2.578</v>
+        <v>2.468</v>
       </c>
       <c r="M76">
         <v>3.04743</v>
@@ -5053,19 +5056,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5079,7 +5082,7 @@
         <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F77">
         <v>2.27</v>
@@ -5094,7 +5097,7 @@
         <v>3.62645</v>
       </c>
       <c r="L77">
-        <v>2.578</v>
+        <v>2.468</v>
       </c>
       <c r="M77">
         <v>3.04743</v>
@@ -5109,19 +5112,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5135,7 +5138,7 @@
         <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F78">
         <v>2.66</v>
@@ -5150,7 +5153,7 @@
         <v>3.8055</v>
       </c>
       <c r="L78">
-        <v>2.81</v>
+        <v>2.68</v>
       </c>
       <c r="M78">
         <v>3.3781</v>
@@ -5165,19 +5168,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5191,7 +5194,7 @@
         <v>50</v>
       </c>
       <c r="E79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F79">
         <v>2.66</v>
@@ -5206,7 +5209,7 @@
         <v>3.8055</v>
       </c>
       <c r="L79">
-        <v>2.81</v>
+        <v>2.68</v>
       </c>
       <c r="M79">
         <v>3.3781</v>
@@ -5221,19 +5224,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5247,7 +5250,7 @@
         <v>50</v>
       </c>
       <c r="E80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F80">
         <v>0.049</v>
@@ -5262,7 +5265,7 @@
         <v>0.2483</v>
       </c>
       <c r="L80">
-        <v>0.0425</v>
+        <v>0.044</v>
       </c>
       <c r="M80">
         <v>0.09941</v>
@@ -5277,19 +5280,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5303,7 +5306,7 @@
         <v>50</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F81">
         <v>0.049</v>
@@ -5318,7 +5321,7 @@
         <v>0.2483</v>
       </c>
       <c r="L81">
-        <v>0.0425</v>
+        <v>0.044</v>
       </c>
       <c r="M81">
         <v>0.09941</v>
@@ -5333,19 +5336,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5362,7 +5365,7 @@
         <v>51</v>
       </c>
       <c r="E82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F82">
         <v>0.309</v>
@@ -5392,16 +5395,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5418,28 +5421,28 @@
         <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F83">
         <v>0.37</v>
       </c>
       <c r="G83">
-        <v>0.550155124491335</v>
+        <v>0.595848935286257</v>
       </c>
       <c r="H83">
-        <v>2.03839367179913</v>
+        <v>3.09371340324252</v>
       </c>
       <c r="I83">
-        <v>1.728</v>
+        <v>1.87772</v>
       </c>
       <c r="L83">
-        <v>0.305</v>
+        <v>0.33</v>
       </c>
       <c r="M83">
-        <v>1.36719</v>
+        <v>1.3896</v>
       </c>
       <c r="N83">
-        <v>1.567</v>
+        <v>1.7248</v>
       </c>
       <c r="O83">
         <v>1797784.6</v>
@@ -5448,19 +5451,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5477,7 +5480,7 @@
         <v>51</v>
       </c>
       <c r="E84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F84">
         <v>0.018</v>
@@ -5492,7 +5495,7 @@
         <v>0.05085</v>
       </c>
       <c r="L84">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="M84">
         <v>0.03135</v>
@@ -5507,19 +5510,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5536,7 +5539,7 @@
         <v>51</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F85">
         <v>0.018</v>
@@ -5551,7 +5554,7 @@
         <v>0.05085</v>
       </c>
       <c r="L85">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="M85">
         <v>0.03135</v>
@@ -5566,19 +5569,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5595,19 +5598,19 @@
         <v>51</v>
       </c>
       <c r="E86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F86">
         <v>950</v>
       </c>
       <c r="G86">
-        <v>2446.45847252151</v>
+        <v>2349.40799438644</v>
       </c>
       <c r="H86">
-        <v>14835.0500158349</v>
+        <v>12713.4972411912</v>
       </c>
       <c r="I86">
-        <v>9723.341280000001</v>
+        <v>9831.28435</v>
       </c>
       <c r="J86">
         <v>71.1864406779661</v>
@@ -5616,7 +5619,7 @@
         <v>89.83050847457631</v>
       </c>
       <c r="L86">
-        <v>1350</v>
+        <v>1200</v>
       </c>
       <c r="M86">
         <v>3700</v>
@@ -5631,19 +5634,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5660,19 +5663,19 @@
         <v>51</v>
       </c>
       <c r="E87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F87">
         <v>950</v>
       </c>
       <c r="G87">
-        <v>2446.45847252151</v>
+        <v>2349.40799438644</v>
       </c>
       <c r="H87">
-        <v>14835.0500158349</v>
+        <v>12713.4972411912</v>
       </c>
       <c r="I87">
-        <v>9723.341280000001</v>
+        <v>9831.28435</v>
       </c>
       <c r="J87">
         <v>71.1864406779661</v>
@@ -5681,7 +5684,7 @@
         <v>89.83050847457631</v>
       </c>
       <c r="L87">
-        <v>1350</v>
+        <v>1200</v>
       </c>
       <c r="M87">
         <v>3700</v>
@@ -5696,19 +5699,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5725,19 +5728,19 @@
         <v>51</v>
       </c>
       <c r="E88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F88">
         <v>950</v>
       </c>
       <c r="G88">
-        <v>2446.45847252151</v>
+        <v>2349.40799438644</v>
       </c>
       <c r="H88">
-        <v>14835.0500158349</v>
+        <v>12713.4972411912</v>
       </c>
       <c r="I88">
-        <v>9723.341280000001</v>
+        <v>9831.28435</v>
       </c>
       <c r="J88">
         <v>71.1864406779661</v>
@@ -5746,7 +5749,7 @@
         <v>89.83050847457631</v>
       </c>
       <c r="L88">
-        <v>1350</v>
+        <v>1200</v>
       </c>
       <c r="M88">
         <v>3700</v>
@@ -5761,19 +5764,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5790,19 +5793,19 @@
         <v>51</v>
       </c>
       <c r="E89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F89">
         <v>950</v>
       </c>
       <c r="G89">
-        <v>2446.45847252151</v>
+        <v>2349.40799438644</v>
       </c>
       <c r="H89">
-        <v>14835.0500158349</v>
+        <v>12713.4972411912</v>
       </c>
       <c r="I89">
-        <v>9723.341280000001</v>
+        <v>9831.28435</v>
       </c>
       <c r="J89">
         <v>71.1864406779661</v>
@@ -5811,7 +5814,7 @@
         <v>89.83050847457631</v>
       </c>
       <c r="L89">
-        <v>1350</v>
+        <v>1200</v>
       </c>
       <c r="M89">
         <v>3700</v>
@@ -5826,19 +5829,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5855,7 +5858,7 @@
         <v>51</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F90">
         <v>92</v>
@@ -5885,16 +5888,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5911,13 +5914,13 @@
         <v>51</v>
       </c>
       <c r="E91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F91">
         <v>0.01069</v>
       </c>
       <c r="G91">
-        <v>0.0177570491093922</v>
+        <v>0.0177566916470853</v>
       </c>
       <c r="H91">
         <v>0.171570669395899</v>
@@ -5926,7 +5929,7 @@
         <v>0.04607</v>
       </c>
       <c r="L91">
-        <v>0.01179</v>
+        <v>0.009390000000000001</v>
       </c>
       <c r="M91">
         <v>0.02354</v>
@@ -5941,19 +5944,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -5970,13 +5973,13 @@
         <v>51</v>
       </c>
       <c r="E92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F92">
         <v>0.01069</v>
       </c>
       <c r="G92">
-        <v>0.0177570491093922</v>
+        <v>0.0177566916470853</v>
       </c>
       <c r="H92">
         <v>0.171570669395899</v>
@@ -5985,7 +5988,7 @@
         <v>0.04607</v>
       </c>
       <c r="L92">
-        <v>0.01179</v>
+        <v>0.009390000000000001</v>
       </c>
       <c r="M92">
         <v>0.02354</v>
@@ -6000,19 +6003,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6029,7 +6032,7 @@
         <v>51</v>
       </c>
       <c r="E93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F93">
         <v>2.34</v>
@@ -6044,7 +6047,7 @@
         <v>3.7615</v>
       </c>
       <c r="L93">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="M93">
         <v>3.3517</v>
@@ -6059,19 +6062,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U93" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6088,7 +6091,7 @@
         <v>51</v>
       </c>
       <c r="E94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F94">
         <v>2.34</v>
@@ -6103,7 +6106,7 @@
         <v>3.7615</v>
       </c>
       <c r="L94">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="M94">
         <v>3.3517</v>
@@ -6118,19 +6121,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U94" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6147,7 +6150,7 @@
         <v>51</v>
       </c>
       <c r="E95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F95">
         <v>4.24</v>
@@ -6177,16 +6180,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6200,7 +6203,7 @@
         <v>51</v>
       </c>
       <c r="E96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F96">
         <v>2.389</v>
@@ -6215,7 +6218,7 @@
         <v>3.79955</v>
       </c>
       <c r="L96">
-        <v>2.665</v>
+        <v>2.585</v>
       </c>
       <c r="M96">
         <v>3.36935</v>
@@ -6230,19 +6233,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U96" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6256,7 +6259,7 @@
         <v>51</v>
       </c>
       <c r="E97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F97">
         <v>2.389</v>
@@ -6271,7 +6274,7 @@
         <v>3.79955</v>
       </c>
       <c r="L97">
-        <v>2.665</v>
+        <v>2.585</v>
       </c>
       <c r="M97">
         <v>3.36935</v>
@@ -6286,19 +6289,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U97" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6312,7 +6315,7 @@
         <v>51</v>
       </c>
       <c r="E98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F98">
         <v>2.61</v>
@@ -6327,7 +6330,7 @@
         <v>4.0605</v>
       </c>
       <c r="L98">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="M98">
         <v>3.73</v>
@@ -6342,19 +6345,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6368,7 +6371,7 @@
         <v>51</v>
       </c>
       <c r="E99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F99">
         <v>2.61</v>
@@ -6383,7 +6386,7 @@
         <v>4.0605</v>
       </c>
       <c r="L99">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="M99">
         <v>3.73</v>
@@ -6398,19 +6401,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6424,7 +6427,7 @@
         <v>51</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F100">
         <v>0.05</v>
@@ -6439,7 +6442,7 @@
         <v>0.2785</v>
       </c>
       <c r="L100">
-        <v>0.0435</v>
+        <v>0.045</v>
       </c>
       <c r="M100">
         <v>0.08282</v>
@@ -6454,19 +6457,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6480,7 +6483,7 @@
         <v>51</v>
       </c>
       <c r="E101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F101">
         <v>0.05</v>
@@ -6495,7 +6498,7 @@
         <v>0.2785</v>
       </c>
       <c r="L101">
-        <v>0.0435</v>
+        <v>0.045</v>
       </c>
       <c r="M101">
         <v>0.08282</v>
@@ -6510,19 +6513,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U101" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6539,7 +6542,7 @@
         <v>52</v>
       </c>
       <c r="E102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F102">
         <v>0.306</v>
@@ -6569,16 +6572,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6595,7 +6598,7 @@
         <v>52</v>
       </c>
       <c r="E103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F103">
         <v>0.018</v>
@@ -6625,19 +6628,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6654,7 +6657,7 @@
         <v>52</v>
       </c>
       <c r="E104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F104">
         <v>0.018</v>
@@ -6684,19 +6687,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6713,19 +6716,19 @@
         <v>52</v>
       </c>
       <c r="E105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F105">
         <v>820</v>
       </c>
       <c r="G105">
-        <v>2384.07818257368</v>
+        <v>2476.48907212387</v>
       </c>
       <c r="H105">
-        <v>14835.0500158349</v>
+        <v>16026.6473554093</v>
       </c>
       <c r="I105">
-        <v>9700</v>
+        <v>10401.62159</v>
       </c>
       <c r="J105">
         <v>67.7966101694915</v>
@@ -6734,13 +6737,13 @@
         <v>86.4406779661017</v>
       </c>
       <c r="L105">
-        <v>1071.5</v>
+        <v>1000</v>
       </c>
       <c r="M105">
-        <v>3910.34</v>
+        <v>3910.152</v>
       </c>
       <c r="N105">
-        <v>9696.762500000001</v>
+        <v>9700</v>
       </c>
       <c r="O105">
         <v>1797784.6</v>
@@ -6749,19 +6752,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6778,19 +6781,19 @@
         <v>52</v>
       </c>
       <c r="E106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F106">
         <v>820</v>
       </c>
       <c r="G106">
-        <v>2384.07818257368</v>
+        <v>2476.48907212387</v>
       </c>
       <c r="H106">
-        <v>14835.0500158349</v>
+        <v>16026.6473554093</v>
       </c>
       <c r="I106">
-        <v>9700</v>
+        <v>10401.62159</v>
       </c>
       <c r="J106">
         <v>67.7966101694915</v>
@@ -6799,13 +6802,13 @@
         <v>86.4406779661017</v>
       </c>
       <c r="L106">
-        <v>1071.5</v>
+        <v>1000</v>
       </c>
       <c r="M106">
-        <v>3910.34</v>
+        <v>3910.152</v>
       </c>
       <c r="N106">
-        <v>9696.762500000001</v>
+        <v>9700</v>
       </c>
       <c r="O106">
         <v>1797784.6</v>
@@ -6814,19 +6817,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U106" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6843,19 +6846,19 @@
         <v>52</v>
       </c>
       <c r="E107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F107">
         <v>820</v>
       </c>
       <c r="G107">
-        <v>2384.07818257368</v>
+        <v>2476.48907212387</v>
       </c>
       <c r="H107">
-        <v>14835.0500158349</v>
+        <v>16026.6473554093</v>
       </c>
       <c r="I107">
-        <v>9700</v>
+        <v>10401.62159</v>
       </c>
       <c r="J107">
         <v>67.7966101694915</v>
@@ -6864,13 +6867,13 @@
         <v>86.4406779661017</v>
       </c>
       <c r="L107">
-        <v>1071.5</v>
+        <v>1000</v>
       </c>
       <c r="M107">
-        <v>3910.34</v>
+        <v>3910.152</v>
       </c>
       <c r="N107">
-        <v>9696.762500000001</v>
+        <v>9700</v>
       </c>
       <c r="O107">
         <v>1797784.6</v>
@@ -6879,19 +6882,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6908,19 +6911,19 @@
         <v>52</v>
       </c>
       <c r="E108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F108">
         <v>820</v>
       </c>
       <c r="G108">
-        <v>2384.07818257368</v>
+        <v>2476.48907212387</v>
       </c>
       <c r="H108">
-        <v>14835.0500158349</v>
+        <v>16026.6473554093</v>
       </c>
       <c r="I108">
-        <v>9700</v>
+        <v>10401.62159</v>
       </c>
       <c r="J108">
         <v>67.7966101694915</v>
@@ -6929,13 +6932,13 @@
         <v>86.4406779661017</v>
       </c>
       <c r="L108">
-        <v>1071.5</v>
+        <v>1000</v>
       </c>
       <c r="M108">
-        <v>3910.34</v>
+        <v>3910.152</v>
       </c>
       <c r="N108">
-        <v>9696.762500000001</v>
+        <v>9700</v>
       </c>
       <c r="O108">
         <v>1797784.6</v>
@@ -6944,19 +6947,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -6973,7 +6976,7 @@
         <v>52</v>
       </c>
       <c r="E109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F109">
         <v>95.45</v>
@@ -7003,16 +7006,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7029,13 +7032,13 @@
         <v>52</v>
       </c>
       <c r="E110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F110">
         <v>0.01012</v>
       </c>
       <c r="G110">
-        <v>0.142734073346837</v>
+        <v>0.142734134263907</v>
       </c>
       <c r="H110">
         <v>6.80203865532054</v>
@@ -7044,7 +7047,7 @@
         <v>0.05348</v>
       </c>
       <c r="L110">
-        <v>0.01029</v>
+        <v>0.00929</v>
       </c>
       <c r="M110">
         <v>0.02372</v>
@@ -7059,19 +7062,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7088,13 +7091,13 @@
         <v>52</v>
       </c>
       <c r="E111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F111">
         <v>0.01012</v>
       </c>
       <c r="G111">
-        <v>0.142734073346837</v>
+        <v>0.142734134263907</v>
       </c>
       <c r="H111">
         <v>6.80203865532054</v>
@@ -7103,7 +7106,7 @@
         <v>0.05348</v>
       </c>
       <c r="L111">
-        <v>0.01029</v>
+        <v>0.00929</v>
       </c>
       <c r="M111">
         <v>0.02372</v>
@@ -7118,19 +7121,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7147,7 +7150,7 @@
         <v>52</v>
       </c>
       <c r="E112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F112">
         <v>2.37</v>
@@ -7162,7 +7165,7 @@
         <v>3.8695</v>
       </c>
       <c r="L112">
-        <v>2.555</v>
+        <v>2.5</v>
       </c>
       <c r="M112">
         <v>3.2594</v>
@@ -7177,19 +7180,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U112" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7206,7 +7209,7 @@
         <v>52</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F113">
         <v>2.37</v>
@@ -7221,7 +7224,7 @@
         <v>3.8695</v>
       </c>
       <c r="L113">
-        <v>2.555</v>
+        <v>2.5</v>
       </c>
       <c r="M113">
         <v>3.2594</v>
@@ -7236,19 +7239,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U113" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7265,7 +7268,7 @@
         <v>52</v>
       </c>
       <c r="E114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F114">
         <v>4.33</v>
@@ -7295,16 +7298,16 @@
         <v>5503388.08</v>
       </c>
       <c r="Q114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7318,7 +7321,7 @@
         <v>52</v>
       </c>
       <c r="E115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F115">
         <v>2.389</v>
@@ -7333,7 +7336,7 @@
         <v>3.8923</v>
       </c>
       <c r="L115">
-        <v>2.578</v>
+        <v>2.54</v>
       </c>
       <c r="M115">
         <v>3.28611</v>
@@ -7348,19 +7351,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7374,7 +7377,7 @@
         <v>52</v>
       </c>
       <c r="E116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F116">
         <v>2.389</v>
@@ -7389,7 +7392,7 @@
         <v>3.8923</v>
       </c>
       <c r="L116">
-        <v>2.578</v>
+        <v>2.54</v>
       </c>
       <c r="M116">
         <v>3.28611</v>
@@ -7404,19 +7407,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U116" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7430,7 +7433,7 @@
         <v>52</v>
       </c>
       <c r="E117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F117">
         <v>2.68</v>
@@ -7445,7 +7448,7 @@
         <v>4.1155</v>
       </c>
       <c r="L117">
-        <v>2.795</v>
+        <v>2.69</v>
       </c>
       <c r="M117">
         <v>3.6081</v>
@@ -7460,19 +7463,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U117" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7486,7 +7489,7 @@
         <v>52</v>
       </c>
       <c r="E118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F118">
         <v>2.68</v>
@@ -7501,7 +7504,7 @@
         <v>4.1155</v>
       </c>
       <c r="L118">
-        <v>2.795</v>
+        <v>2.69</v>
       </c>
       <c r="M118">
         <v>3.6081</v>
@@ -7516,19 +7519,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U118" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7542,7 +7545,7 @@
         <v>52</v>
       </c>
       <c r="E119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F119">
         <v>0.05</v>
@@ -7557,7 +7560,7 @@
         <v>0.4242</v>
       </c>
       <c r="L119">
-        <v>0.043</v>
+        <v>0.046</v>
       </c>
       <c r="M119">
         <v>0.09588000000000001</v>
@@ -7572,19 +7575,19 @@
         <v>5503388.08</v>
       </c>
       <c r="Q119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U119" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7598,7 +7601,7 @@
         <v>52</v>
       </c>
       <c r="E120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F120">
         <v>0.05</v>
@@ -7613,7 +7616,7 @@
         <v>0.4242</v>
       </c>
       <c r="L120">
-        <v>0.043</v>
+        <v>0.046</v>
       </c>
       <c r="M120">
         <v>0.09588000000000001</v>
@@ -7628,19 +7631,1137 @@
         <v>5503388.08</v>
       </c>
       <c r="Q120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U120" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>42</v>
+      </c>
+      <c r="D121" t="s">
+        <v>53</v>
+      </c>
+      <c r="E121" t="s">
+        <v>54</v>
+      </c>
+      <c r="F121">
+        <v>0.306</v>
+      </c>
+      <c r="G121">
+        <v>0.2944</v>
+      </c>
+      <c r="H121">
+        <v>0.32</v>
+      </c>
+      <c r="I121">
+        <v>0.32</v>
+      </c>
+      <c r="L121">
+        <v>0.306</v>
+      </c>
+      <c r="M121">
+        <v>0.31615</v>
+      </c>
+      <c r="N121">
+        <v>0.32</v>
+      </c>
+      <c r="O121">
+        <v>1797784.6</v>
+      </c>
+      <c r="P121">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>55</v>
+      </c>
+      <c r="R121" t="s">
+        <v>56</v>
+      </c>
+      <c r="S121" t="s">
+        <v>57</v>
+      </c>
+      <c r="T121" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" t="s">
+        <v>43</v>
+      </c>
+      <c r="D122" t="s">
+        <v>53</v>
+      </c>
+      <c r="E122" t="s">
+        <v>54</v>
+      </c>
+      <c r="F122">
+        <v>0.017</v>
+      </c>
+      <c r="G122">
+        <v>0.0450847457627119</v>
+      </c>
+      <c r="H122">
+        <v>1.36</v>
+      </c>
+      <c r="I122">
+        <v>0.0793</v>
+      </c>
+      <c r="L122">
+        <v>0.018</v>
+      </c>
+      <c r="M122">
+        <v>0.03135</v>
+      </c>
+      <c r="N122">
+        <v>0.04656</v>
+      </c>
+      <c r="O122">
+        <v>1797784.6</v>
+      </c>
+      <c r="P122">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>55</v>
+      </c>
+      <c r="R122" t="s">
+        <v>56</v>
+      </c>
+      <c r="S122" t="s">
+        <v>57</v>
+      </c>
+      <c r="T122" t="s">
+        <v>58</v>
+      </c>
+      <c r="U122" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>42</v>
+      </c>
+      <c r="D123" t="s">
+        <v>53</v>
+      </c>
+      <c r="E123" t="s">
+        <v>54</v>
+      </c>
+      <c r="F123">
+        <v>0.017</v>
+      </c>
+      <c r="G123">
+        <v>0.0450847457627119</v>
+      </c>
+      <c r="H123">
+        <v>1.36</v>
+      </c>
+      <c r="I123">
+        <v>0.0793</v>
+      </c>
+      <c r="L123">
+        <v>0.018</v>
+      </c>
+      <c r="M123">
+        <v>0.03135</v>
+      </c>
+      <c r="N123">
+        <v>0.04656</v>
+      </c>
+      <c r="O123">
+        <v>1797784.6</v>
+      </c>
+      <c r="P123">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>55</v>
+      </c>
+      <c r="R123" t="s">
+        <v>56</v>
+      </c>
+      <c r="S123" t="s">
+        <v>57</v>
+      </c>
+      <c r="T123" t="s">
+        <v>58</v>
+      </c>
+      <c r="U123" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D124" t="s">
+        <v>53</v>
+      </c>
+      <c r="E124" t="s">
+        <v>54</v>
+      </c>
+      <c r="F124">
+        <v>642.8</v>
+      </c>
+      <c r="G124">
+        <v>2048.52846847939</v>
+      </c>
+      <c r="H124">
+        <v>16026.6473554093</v>
+      </c>
+      <c r="I124">
+        <v>9700</v>
+      </c>
+      <c r="J124">
+        <v>61.0169491525424</v>
+      </c>
+      <c r="K124">
+        <v>81.3559322033898</v>
+      </c>
+      <c r="L124">
+        <v>668</v>
+      </c>
+      <c r="M124">
+        <v>3371.612</v>
+      </c>
+      <c r="N124">
+        <v>7526</v>
+      </c>
+      <c r="O124">
+        <v>1797784.6</v>
+      </c>
+      <c r="P124">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>55</v>
+      </c>
+      <c r="R124" t="s">
+        <v>56</v>
+      </c>
+      <c r="S124" t="s">
+        <v>57</v>
+      </c>
+      <c r="T124" t="s">
+        <v>58</v>
+      </c>
+      <c r="U124" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" t="s">
+        <v>44</v>
+      </c>
+      <c r="D125" t="s">
+        <v>53</v>
+      </c>
+      <c r="E125" t="s">
+        <v>54</v>
+      </c>
+      <c r="F125">
+        <v>642.8</v>
+      </c>
+      <c r="G125">
+        <v>2048.52846847939</v>
+      </c>
+      <c r="H125">
+        <v>16026.6473554093</v>
+      </c>
+      <c r="I125">
+        <v>9700</v>
+      </c>
+      <c r="J125">
+        <v>61.0169491525424</v>
+      </c>
+      <c r="K125">
+        <v>81.3559322033898</v>
+      </c>
+      <c r="L125">
+        <v>668</v>
+      </c>
+      <c r="M125">
+        <v>3371.612</v>
+      </c>
+      <c r="N125">
+        <v>7526</v>
+      </c>
+      <c r="O125">
+        <v>1797784.6</v>
+      </c>
+      <c r="P125">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>55</v>
+      </c>
+      <c r="R125" t="s">
+        <v>56</v>
+      </c>
+      <c r="S125" t="s">
+        <v>57</v>
+      </c>
+      <c r="T125" t="s">
+        <v>58</v>
+      </c>
+      <c r="U125" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" t="s">
+        <v>44</v>
+      </c>
+      <c r="D126" t="s">
+        <v>53</v>
+      </c>
+      <c r="E126" t="s">
+        <v>54</v>
+      </c>
+      <c r="F126">
+        <v>642.8</v>
+      </c>
+      <c r="G126">
+        <v>2048.52846847939</v>
+      </c>
+      <c r="H126">
+        <v>16026.6473554093</v>
+      </c>
+      <c r="I126">
+        <v>9700</v>
+      </c>
+      <c r="J126">
+        <v>61.0169491525424</v>
+      </c>
+      <c r="K126">
+        <v>81.3559322033898</v>
+      </c>
+      <c r="L126">
+        <v>668</v>
+      </c>
+      <c r="M126">
+        <v>3371.612</v>
+      </c>
+      <c r="N126">
+        <v>7526</v>
+      </c>
+      <c r="O126">
+        <v>1797784.6</v>
+      </c>
+      <c r="P126">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>55</v>
+      </c>
+      <c r="R126" t="s">
+        <v>56</v>
+      </c>
+      <c r="S126" t="s">
+        <v>57</v>
+      </c>
+      <c r="T126" t="s">
+        <v>58</v>
+      </c>
+      <c r="U126" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" t="s">
+        <v>44</v>
+      </c>
+      <c r="D127" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127" t="s">
+        <v>54</v>
+      </c>
+      <c r="F127">
+        <v>642.8</v>
+      </c>
+      <c r="G127">
+        <v>2048.52846847939</v>
+      </c>
+      <c r="H127">
+        <v>16026.6473554093</v>
+      </c>
+      <c r="I127">
+        <v>9700</v>
+      </c>
+      <c r="J127">
+        <v>61.0169491525424</v>
+      </c>
+      <c r="K127">
+        <v>81.3559322033898</v>
+      </c>
+      <c r="L127">
+        <v>668</v>
+      </c>
+      <c r="M127">
+        <v>3371.612</v>
+      </c>
+      <c r="N127">
+        <v>7526</v>
+      </c>
+      <c r="O127">
+        <v>1797784.6</v>
+      </c>
+      <c r="P127">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>55</v>
+      </c>
+      <c r="R127" t="s">
+        <v>56</v>
+      </c>
+      <c r="S127" t="s">
+        <v>57</v>
+      </c>
+      <c r="T127" t="s">
+        <v>58</v>
+      </c>
+      <c r="U127" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" t="s">
+        <v>42</v>
+      </c>
+      <c r="D128" t="s">
+        <v>53</v>
+      </c>
+      <c r="E128" t="s">
+        <v>54</v>
+      </c>
+      <c r="F128">
+        <v>95.45</v>
+      </c>
+      <c r="G128">
+        <v>95.43000000000001</v>
+      </c>
+      <c r="H128">
+        <v>100</v>
+      </c>
+      <c r="I128">
+        <v>100</v>
+      </c>
+      <c r="L128">
+        <v>95.45</v>
+      </c>
+      <c r="M128">
+        <v>99.72</v>
+      </c>
+      <c r="N128">
+        <v>100</v>
+      </c>
+      <c r="O128">
+        <v>1797784.6</v>
+      </c>
+      <c r="P128">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>55</v>
+      </c>
+      <c r="R128" t="s">
+        <v>56</v>
+      </c>
+      <c r="S128" t="s">
+        <v>57</v>
+      </c>
+      <c r="T128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129" t="s">
+        <v>46</v>
+      </c>
+      <c r="D129" t="s">
+        <v>53</v>
+      </c>
+      <c r="E129" t="s">
+        <v>54</v>
+      </c>
+      <c r="F129">
+        <v>0.01011</v>
+      </c>
+      <c r="G129">
+        <v>0.138493899416012</v>
+      </c>
+      <c r="H129">
+        <v>6.80203865532054</v>
+      </c>
+      <c r="I129">
+        <v>0.05417</v>
+      </c>
+      <c r="L129">
+        <v>0.00929</v>
+      </c>
+      <c r="M129">
+        <v>0.02407</v>
+      </c>
+      <c r="N129">
+        <v>0.04234</v>
+      </c>
+      <c r="O129">
+        <v>1797784.6</v>
+      </c>
+      <c r="P129">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>55</v>
+      </c>
+      <c r="R129" t="s">
+        <v>56</v>
+      </c>
+      <c r="S129" t="s">
+        <v>57</v>
+      </c>
+      <c r="T129" t="s">
+        <v>58</v>
+      </c>
+      <c r="U129" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" t="s">
+        <v>53</v>
+      </c>
+      <c r="E130" t="s">
+        <v>54</v>
+      </c>
+      <c r="F130">
+        <v>0.01011</v>
+      </c>
+      <c r="G130">
+        <v>0.138493899416012</v>
+      </c>
+      <c r="H130">
+        <v>6.80203865532054</v>
+      </c>
+      <c r="I130">
+        <v>0.05417</v>
+      </c>
+      <c r="L130">
+        <v>0.00929</v>
+      </c>
+      <c r="M130">
+        <v>0.02407</v>
+      </c>
+      <c r="N130">
+        <v>0.04234</v>
+      </c>
+      <c r="O130">
+        <v>1797784.6</v>
+      </c>
+      <c r="P130">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>55</v>
+      </c>
+      <c r="R130" t="s">
+        <v>56</v>
+      </c>
+      <c r="S130" t="s">
+        <v>57</v>
+      </c>
+      <c r="T130" t="s">
+        <v>58</v>
+      </c>
+      <c r="U130" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" t="s">
+        <v>42</v>
+      </c>
+      <c r="D131" t="s">
+        <v>53</v>
+      </c>
+      <c r="E131" t="s">
+        <v>54</v>
+      </c>
+      <c r="F131">
+        <v>2.44</v>
+      </c>
+      <c r="G131">
+        <v>2.41983050847458</v>
+      </c>
+      <c r="H131">
+        <v>6.97</v>
+      </c>
+      <c r="I131">
+        <v>3.8695</v>
+      </c>
+      <c r="L131">
+        <v>2.56</v>
+      </c>
+      <c r="M131">
+        <v>3.3534</v>
+      </c>
+      <c r="N131">
+        <v>3.7056</v>
+      </c>
+      <c r="O131">
+        <v>1797784.6</v>
+      </c>
+      <c r="P131">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>55</v>
+      </c>
+      <c r="R131" t="s">
+        <v>56</v>
+      </c>
+      <c r="S131" t="s">
+        <v>57</v>
+      </c>
+      <c r="T131" t="s">
+        <v>58</v>
+      </c>
+      <c r="U131" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" t="s">
+        <v>42</v>
+      </c>
+      <c r="D132" t="s">
+        <v>53</v>
+      </c>
+      <c r="E132" t="s">
+        <v>54</v>
+      </c>
+      <c r="F132">
+        <v>2.44</v>
+      </c>
+      <c r="G132">
+        <v>2.41983050847458</v>
+      </c>
+      <c r="H132">
+        <v>6.97</v>
+      </c>
+      <c r="I132">
+        <v>3.8695</v>
+      </c>
+      <c r="L132">
+        <v>2.56</v>
+      </c>
+      <c r="M132">
+        <v>3.3534</v>
+      </c>
+      <c r="N132">
+        <v>3.7056</v>
+      </c>
+      <c r="O132">
+        <v>1797784.6</v>
+      </c>
+      <c r="P132">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>55</v>
+      </c>
+      <c r="R132" t="s">
+        <v>56</v>
+      </c>
+      <c r="S132" t="s">
+        <v>57</v>
+      </c>
+      <c r="T132" t="s">
+        <v>58</v>
+      </c>
+      <c r="U132" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" t="s">
+        <v>42</v>
+      </c>
+      <c r="D133" t="s">
+        <v>53</v>
+      </c>
+      <c r="E133" t="s">
+        <v>54</v>
+      </c>
+      <c r="F133">
+        <v>4.526</v>
+      </c>
+      <c r="G133">
+        <v>4.5708</v>
+      </c>
+      <c r="H133">
+        <v>4.947</v>
+      </c>
+      <c r="I133">
+        <v>4.947</v>
+      </c>
+      <c r="L133">
+        <v>4.526</v>
+      </c>
+      <c r="M133">
+        <v>4.92355</v>
+      </c>
+      <c r="N133">
+        <v>4.947</v>
+      </c>
+      <c r="O133">
+        <v>1797784.6</v>
+      </c>
+      <c r="P133">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>55</v>
+      </c>
+      <c r="R133" t="s">
+        <v>56</v>
+      </c>
+      <c r="S133" t="s">
+        <v>57</v>
+      </c>
+      <c r="T133" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="D134" t="s">
+        <v>53</v>
+      </c>
+      <c r="E134" t="s">
+        <v>54</v>
+      </c>
+      <c r="F134">
+        <v>2.464</v>
+      </c>
+      <c r="G134">
+        <v>2.69908474576271</v>
+      </c>
+      <c r="H134">
+        <v>21.05</v>
+      </c>
+      <c r="I134">
+        <v>3.8923</v>
+      </c>
+      <c r="L134">
+        <v>2.585</v>
+      </c>
+      <c r="M134">
+        <v>3.37259</v>
+      </c>
+      <c r="N134">
+        <v>3.76974</v>
+      </c>
+      <c r="O134">
+        <v>1797784.6</v>
+      </c>
+      <c r="P134">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>55</v>
+      </c>
+      <c r="R134" t="s">
+        <v>56</v>
+      </c>
+      <c r="S134" t="s">
+        <v>57</v>
+      </c>
+      <c r="T134" t="s">
+        <v>58</v>
+      </c>
+      <c r="U134" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>37</v>
+      </c>
+      <c r="D135" t="s">
+        <v>53</v>
+      </c>
+      <c r="E135" t="s">
+        <v>54</v>
+      </c>
+      <c r="F135">
+        <v>2.464</v>
+      </c>
+      <c r="G135">
+        <v>2.69908474576271</v>
+      </c>
+      <c r="H135">
+        <v>21.05</v>
+      </c>
+      <c r="I135">
+        <v>3.8923</v>
+      </c>
+      <c r="L135">
+        <v>2.585</v>
+      </c>
+      <c r="M135">
+        <v>3.37259</v>
+      </c>
+      <c r="N135">
+        <v>3.76974</v>
+      </c>
+      <c r="O135">
+        <v>1797784.6</v>
+      </c>
+      <c r="P135">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>55</v>
+      </c>
+      <c r="R135" t="s">
+        <v>56</v>
+      </c>
+      <c r="S135" t="s">
+        <v>57</v>
+      </c>
+      <c r="T135" t="s">
+        <v>58</v>
+      </c>
+      <c r="U135" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" t="s">
+        <v>53</v>
+      </c>
+      <c r="E136" t="s">
+        <v>54</v>
+      </c>
+      <c r="F136">
+        <v>2.7</v>
+      </c>
+      <c r="G136">
+        <v>3.08779661016949</v>
+      </c>
+      <c r="H136">
+        <v>22.6</v>
+      </c>
+      <c r="I136">
+        <v>4.1155</v>
+      </c>
+      <c r="L136">
+        <v>2.8</v>
+      </c>
+      <c r="M136">
+        <v>3.7247</v>
+      </c>
+      <c r="N136">
+        <v>3.8056</v>
+      </c>
+      <c r="O136">
+        <v>1797784.6</v>
+      </c>
+      <c r="P136">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>55</v>
+      </c>
+      <c r="R136" t="s">
+        <v>56</v>
+      </c>
+      <c r="S136" t="s">
+        <v>57</v>
+      </c>
+      <c r="T136" t="s">
+        <v>58</v>
+      </c>
+      <c r="U136" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" t="s">
+        <v>53</v>
+      </c>
+      <c r="E137" t="s">
+        <v>54</v>
+      </c>
+      <c r="F137">
+        <v>2.7</v>
+      </c>
+      <c r="G137">
+        <v>3.08779661016949</v>
+      </c>
+      <c r="H137">
+        <v>22.6</v>
+      </c>
+      <c r="I137">
+        <v>4.1155</v>
+      </c>
+      <c r="L137">
+        <v>2.8</v>
+      </c>
+      <c r="M137">
+        <v>3.7247</v>
+      </c>
+      <c r="N137">
+        <v>3.8056</v>
+      </c>
+      <c r="O137">
+        <v>1797784.6</v>
+      </c>
+      <c r="P137">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>55</v>
+      </c>
+      <c r="R137" t="s">
+        <v>56</v>
+      </c>
+      <c r="S137" t="s">
+        <v>57</v>
+      </c>
+      <c r="T137" t="s">
+        <v>58</v>
+      </c>
+      <c r="U137" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" t="s">
+        <v>53</v>
+      </c>
+      <c r="E138" t="s">
+        <v>54</v>
+      </c>
+      <c r="F138">
+        <v>0.05</v>
+      </c>
+      <c r="G138">
+        <v>0.111847457627119</v>
+      </c>
+      <c r="H138">
+        <v>1.74</v>
+      </c>
+      <c r="I138">
+        <v>0.4242</v>
+      </c>
+      <c r="L138">
+        <v>0.045</v>
+      </c>
+      <c r="M138">
+        <v>0.08741</v>
+      </c>
+      <c r="N138">
+        <v>0.23444</v>
+      </c>
+      <c r="O138">
+        <v>1797784.6</v>
+      </c>
+      <c r="P138">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>55</v>
+      </c>
+      <c r="R138" t="s">
+        <v>56</v>
+      </c>
+      <c r="S138" t="s">
+        <v>57</v>
+      </c>
+      <c r="T138" t="s">
+        <v>58</v>
+      </c>
+      <c r="U138" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>41</v>
+      </c>
+      <c r="D139" t="s">
+        <v>53</v>
+      </c>
+      <c r="E139" t="s">
+        <v>54</v>
+      </c>
+      <c r="F139">
+        <v>0.05</v>
+      </c>
+      <c r="G139">
+        <v>0.111847457627119</v>
+      </c>
+      <c r="H139">
+        <v>1.74</v>
+      </c>
+      <c r="I139">
+        <v>0.4242</v>
+      </c>
+      <c r="L139">
+        <v>0.045</v>
+      </c>
+      <c r="M139">
+        <v>0.08741</v>
+      </c>
+      <c r="N139">
+        <v>0.23444</v>
+      </c>
+      <c r="O139">
+        <v>1797784.6</v>
+      </c>
+      <c r="P139">
+        <v>5503388.08</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>55</v>
+      </c>
+      <c r="R139" t="s">
+        <v>56</v>
+      </c>
+      <c r="S139" t="s">
+        <v>57</v>
+      </c>
+      <c r="T139" t="s">
+        <v>58</v>
+      </c>
+      <c r="U139" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
